--- a/Transducers_RHCalCurve.xlsx
+++ b/Transducers_RHCalCurve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woollastoncb\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A7EFDDB-F4D5-454B-B10B-7D02AE957277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6E48B2-216E-4887-A958-3B52218E53C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-465" windowWidth="29040" windowHeight="15840" xr2:uid="{B1484360-DE51-4A42-9842-F11B0F2BDD6F}"/>
   </bookViews>
@@ -148,6 +148,15 @@
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
               <a:t>HIH-4000 Relative Humidity Sensor</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>with V supply @ 5V</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2025,7 +2034,7 @@
   <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
